--- a/Resource/excel/table/Q-区服-区服列表-(后端定义,策划填写).xlsx
+++ b/Resource/excel/table/Q-区服-区服列表-(后端定义,策划填写).xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4140" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="1_1_zone" sheetId="2" r:id="rId1"/>
+    <sheet name="0_0_zone" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -192,11 +192,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>xml=1_1_zone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cpp=Zone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml=0_0_zone</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +778,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -798,13 +798,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
